--- a/Team-Data/2014-15/1-29-2014-15.xlsx
+++ b/Team-Data/2014-15/1-29-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -756,7 +823,7 @@
         <v>2</v>
       </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -777,10 +844,10 @@
         <v>1</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ2" t="n">
         <v>8</v>
@@ -789,7 +856,7 @@
         <v>29</v>
       </c>
       <c r="AS2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT2" t="n">
         <v>27</v>
@@ -798,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW2" t="n">
         <v>5</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-29-2014-15</t>
+          <t>2015-01-29</t>
         </is>
       </c>
     </row>
@@ -929,16 +996,16 @@
         <v>28</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG3" t="n">
         <v>21</v>
       </c>
       <c r="AH3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI3" t="n">
         <v>4</v>
@@ -950,7 +1017,7 @@
         <v>16</v>
       </c>
       <c r="AL3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM3" t="n">
         <v>13</v>
@@ -962,10 +1029,10 @@
         <v>28</v>
       </c>
       <c r="AP3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR3" t="n">
         <v>18</v>
@@ -974,7 +1041,7 @@
         <v>12</v>
       </c>
       <c r="AT3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
@@ -989,10 +1056,10 @@
         <v>25</v>
       </c>
       <c r="AY3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA3" t="n">
         <v>30</v>
@@ -1001,7 +1068,7 @@
         <v>10</v>
       </c>
       <c r="BC3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-29-2014-15</t>
+          <t>2015-01-29</t>
         </is>
       </c>
     </row>
@@ -1120,16 +1187,16 @@
         <v>20</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>24</v>
@@ -1153,19 +1220,19 @@
         <v>26</v>
       </c>
       <c r="AS4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT4" t="n">
         <v>23</v>
       </c>
       <c r="AU4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV4" t="n">
         <v>16</v>
       </c>
       <c r="AW4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-29-2014-15</t>
+          <t>2015-01-29</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="AT5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU5" t="n">
         <v>27</v>
@@ -1353,7 +1420,7 @@
         <v>8</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ5" t="n">
         <v>4</v>
@@ -1365,7 +1432,7 @@
         <v>27</v>
       </c>
       <c r="BC5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-29-2014-15</t>
+          <t>2015-01-29</t>
         </is>
       </c>
     </row>
@@ -1394,58 +1461,58 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" t="n">
         <v>30</v>
       </c>
       <c r="F6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" t="n">
-        <v>0.625</v>
+        <v>0.638</v>
       </c>
       <c r="H6" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="I6" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>83.09999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L6" t="n">
         <v>7.7</v>
       </c>
       <c r="M6" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.36</v>
+        <v>0.363</v>
       </c>
       <c r="O6" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="P6" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.785</v>
+        <v>0.784</v>
       </c>
       <c r="R6" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S6" t="n">
         <v>33.5</v>
       </c>
       <c r="T6" t="n">
-        <v>45.7</v>
+        <v>45.6</v>
       </c>
       <c r="U6" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V6" t="n">
         <v>14.3</v>
@@ -1460,31 +1527,31 @@
         <v>5.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.3</v>
+        <v>102</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AI6" t="n">
         <v>20</v>
@@ -1493,7 +1560,7 @@
         <v>18</v>
       </c>
       <c r="AK6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL6" t="n">
         <v>12</v>
@@ -1502,7 +1569,7 @@
         <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1514,7 +1581,7 @@
         <v>3</v>
       </c>
       <c r="AR6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS6" t="n">
         <v>8</v>
@@ -1526,7 +1593,7 @@
         <v>15</v>
       </c>
       <c r="AV6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW6" t="n">
         <v>28</v>
@@ -1535,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="AY6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
         <v>3</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-29-2014-15</t>
+          <t>2015-01-29</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
@@ -1669,7 +1736,7 @@
         <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
         <v>21</v>
@@ -1684,19 +1751,19 @@
         <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
         <v>5</v>
       </c>
       <c r="AP7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS7" t="n">
         <v>24</v>
@@ -1705,13 +1772,13 @@
         <v>19</v>
       </c>
       <c r="AU7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV7" t="n">
         <v>8</v>
       </c>
       <c r="AW7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX7" t="n">
         <v>28</v>
@@ -1726,7 +1793,7 @@
         <v>8</v>
       </c>
       <c r="BB7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-29-2014-15</t>
+          <t>2015-01-29</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" t="n">
         <v>30</v>
       </c>
       <c r="F8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>0.652</v>
+        <v>0.638</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
@@ -1776,7 +1843,7 @@
         <v>40.4</v>
       </c>
       <c r="J8" t="n">
-        <v>86</v>
+        <v>85.8</v>
       </c>
       <c r="K8" t="n">
         <v>0.47</v>
@@ -1785,31 +1852,31 @@
         <v>9.4</v>
       </c>
       <c r="M8" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="N8" t="n">
         <v>0.355</v>
       </c>
       <c r="O8" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P8" t="n">
         <v>22.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.764</v>
+        <v>0.766</v>
       </c>
       <c r="R8" t="n">
         <v>10.7</v>
       </c>
       <c r="S8" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="T8" t="n">
-        <v>42.1</v>
+        <v>41.9</v>
       </c>
       <c r="U8" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="V8" t="n">
         <v>12.4</v>
@@ -1830,25 +1897,25 @@
         <v>22</v>
       </c>
       <c r="AB8" t="n">
-        <v>107.3</v>
+        <v>107.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1872,19 +1939,19 @@
         <v>19</v>
       </c>
       <c r="AP8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
         <v>12</v>
       </c>
       <c r="AR8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-29-2014-15</t>
+          <t>2015-01-29</t>
         </is>
       </c>
     </row>
@@ -1940,55 +2007,55 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" t="n">
         <v>19</v>
       </c>
       <c r="F9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" t="n">
-        <v>0.404</v>
+        <v>0.413</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>37.6</v>
+        <v>37.8</v>
       </c>
       <c r="J9" t="n">
         <v>86.5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.435</v>
+        <v>0.437</v>
       </c>
       <c r="L9" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M9" t="n">
         <v>23.3</v>
       </c>
       <c r="N9" t="n">
-        <v>0.322</v>
+        <v>0.328</v>
       </c>
       <c r="O9" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="P9" t="n">
-        <v>24.8</v>
+        <v>25.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.736</v>
+        <v>0.735</v>
       </c>
       <c r="R9" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S9" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="T9" t="n">
-        <v>45.5</v>
+        <v>45.4</v>
       </c>
       <c r="U9" t="n">
         <v>21.6</v>
@@ -1997,7 +2064,7 @@
         <v>14.3</v>
       </c>
       <c r="W9" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
         <v>4.6</v>
@@ -2006,55 +2073,55 @@
         <v>5.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>100.9</v>
+        <v>101.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>-3</v>
+        <v>-2.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
       </c>
       <c r="AF9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AI9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
         <v>4</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM9" t="n">
         <v>12</v>
       </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO9" t="n">
         <v>8</v>
       </c>
       <c r="AP9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ9" t="n">
         <v>25</v>
@@ -2069,31 +2136,31 @@
         <v>5</v>
       </c>
       <c r="AU9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW9" t="n">
         <v>24</v>
       </c>
       <c r="AX9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC9" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-29-2014-15</t>
+          <t>2015-01-29</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2212,13 +2279,13 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
         <v>23</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK10" t="n">
         <v>28</v>
@@ -2230,10 +2297,10 @@
         <v>7</v>
       </c>
       <c r="AN10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP10" t="n">
         <v>15</v>
@@ -2260,10 +2327,10 @@
         <v>12</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ10" t="n">
         <v>7</v>
@@ -2275,7 +2342,7 @@
         <v>22</v>
       </c>
       <c r="BC10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-29-2014-15</t>
+          <t>2015-01-29</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2488,7 @@
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR11" t="n">
         <v>24</v>
@@ -2439,7 +2506,7 @@
         <v>25</v>
       </c>
       <c r="AW11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX11" t="n">
         <v>2</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-29-2014-15</t>
+          <t>2015-01-29</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" t="n">
         <v>14</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.696</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J12" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="K12" t="n">
         <v>0.44</v>
@@ -2513,19 +2580,19 @@
         <v>11.9</v>
       </c>
       <c r="M12" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.352</v>
+        <v>0.353</v>
       </c>
       <c r="O12" t="n">
-        <v>17.4</v>
+        <v>17.8</v>
       </c>
       <c r="P12" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.721</v>
+        <v>0.719</v>
       </c>
       <c r="R12" t="n">
         <v>12</v>
@@ -2540,49 +2607,49 @@
         <v>21.2</v>
       </c>
       <c r="V12" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="W12" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="X12" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="AD12" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
         <v>4</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK12" t="n">
         <v>21</v>
@@ -2597,22 +2664,22 @@
         <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU12" t="n">
         <v>16</v>
@@ -2624,19 +2691,19 @@
         <v>1</v>
       </c>
       <c r="AX12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-29-2014-15</t>
+          <t>2015-01-29</t>
         </is>
       </c>
     </row>
@@ -2668,34 +2735,34 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" t="n">
         <v>31</v>
       </c>
       <c r="G13" t="n">
-        <v>0.354</v>
+        <v>0.34</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="J13" t="n">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="K13" t="n">
-        <v>0.431</v>
+        <v>0.429</v>
       </c>
       <c r="L13" t="n">
         <v>6.8</v>
       </c>
       <c r="M13" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="N13" t="n">
         <v>0.326</v>
@@ -2707,64 +2774,64 @@
         <v>21.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.753</v>
+        <v>0.754</v>
       </c>
       <c r="R13" t="n">
         <v>10.9</v>
       </c>
       <c r="S13" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="T13" t="n">
-        <v>45.2</v>
+        <v>45.1</v>
       </c>
       <c r="U13" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V13" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W13" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X13" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y13" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z13" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA13" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>95</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>-1.9</v>
+        <v>-2.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF13" t="n">
         <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
@@ -2776,10 +2843,10 @@
         <v>19</v>
       </c>
       <c r="AN13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP13" t="n">
         <v>24</v>
@@ -2788,7 +2855,7 @@
         <v>16</v>
       </c>
       <c r="AR13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS13" t="n">
         <v>4</v>
@@ -2806,22 +2873,22 @@
         <v>29</v>
       </c>
       <c r="AX13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ13" t="n">
         <v>18</v>
       </c>
       <c r="BA13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB13" t="n">
         <v>26</v>
       </c>
       <c r="BC13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-29-2014-15</t>
+          <t>2015-01-29</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-29-2014-15</t>
+          <t>2015-01-29</t>
         </is>
       </c>
     </row>
@@ -3035,25 +3102,25 @@
         <v>46</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15" t="n">
-        <v>0.283</v>
+        <v>0.261</v>
       </c>
       <c r="H15" t="n">
-        <v>48.5</v>
+        <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>37.5</v>
+        <v>37</v>
       </c>
       <c r="J15" t="n">
-        <v>85.7</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
         <v>6.7</v>
@@ -3065,25 +3132,25 @@
         <v>0.346</v>
       </c>
       <c r="O15" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="P15" t="n">
-        <v>24.4</v>
+        <v>24.7</v>
       </c>
       <c r="Q15" t="n">
         <v>0.745</v>
       </c>
       <c r="R15" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="S15" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="T15" t="n">
-        <v>43.4</v>
+        <v>43</v>
       </c>
       <c r="U15" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="V15" t="n">
         <v>13.1</v>
@@ -3092,22 +3159,22 @@
         <v>7.3</v>
       </c>
       <c r="X15" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.3</v>
+        <v>-6.8</v>
       </c>
       <c r="AD15" t="n">
         <v>10</v>
@@ -3116,22 +3183,22 @@
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG15" t="n">
         <v>27</v>
       </c>
       <c r="AH15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>9</v>
       </c>
-      <c r="AI15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>8</v>
-      </c>
       <c r="AK15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL15" t="n">
         <v>23</v>
@@ -3152,37 +3219,37 @@
         <v>21</v>
       </c>
       <c r="AR15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AS15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AT15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AU15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV15" t="n">
         <v>6</v>
       </c>
       <c r="AW15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AX15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ15" t="n">
         <v>19</v>
       </c>
       <c r="BA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="BB15" t="n">
         <v>19</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>17</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-29-2014-15</t>
+          <t>2015-01-29</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" t="n">
         <v>12</v>
       </c>
       <c r="G16" t="n">
-        <v>0.739</v>
+        <v>0.733</v>
       </c>
       <c r="H16" t="n">
         <v>49</v>
@@ -3232,7 +3299,7 @@
         <v>38.8</v>
       </c>
       <c r="J16" t="n">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="K16" t="n">
         <v>0.466</v>
@@ -3244,31 +3311,31 @@
         <v>16</v>
       </c>
       <c r="N16" t="n">
-        <v>0.348</v>
+        <v>0.351</v>
       </c>
       <c r="O16" t="n">
         <v>18.5</v>
       </c>
       <c r="P16" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.777</v>
+        <v>0.78</v>
       </c>
       <c r="R16" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S16" t="n">
-        <v>32.7</v>
+        <v>32.4</v>
       </c>
       <c r="T16" t="n">
-        <v>43</v>
+        <v>42.7</v>
       </c>
       <c r="U16" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V16" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W16" t="n">
         <v>8.199999999999999</v>
@@ -3280,7 +3347,7 @@
         <v>5.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="AA16" t="n">
         <v>20.9</v>
@@ -3289,10 +3356,10 @@
         <v>101.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3310,10 +3377,10 @@
         <v>7</v>
       </c>
       <c r="AJ16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL16" t="n">
         <v>28</v>
@@ -3322,7 +3389,7 @@
         <v>27</v>
       </c>
       <c r="AN16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AO16" t="n">
         <v>7</v>
@@ -3331,22 +3398,22 @@
         <v>12</v>
       </c>
       <c r="AQ16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AR16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT16" t="n">
         <v>16</v>
       </c>
       <c r="AU16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW16" t="n">
         <v>8</v>
@@ -3358,13 +3425,13 @@
         <v>20</v>
       </c>
       <c r="AZ16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA16" t="n">
         <v>11</v>
       </c>
       <c r="BB16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BC16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-29-2014-15</t>
+          <t>2015-01-29</t>
         </is>
       </c>
     </row>
@@ -3504,10 +3571,10 @@
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
@@ -3528,7 +3595,7 @@
         <v>29</v>
       </c>
       <c r="AV17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW17" t="n">
         <v>9</v>
@@ -3537,13 +3604,13 @@
         <v>26</v>
       </c>
       <c r="AY17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ17" t="n">
         <v>13</v>
       </c>
       <c r="BA17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-29-2014-15</t>
+          <t>2015-01-29</t>
         </is>
       </c>
     </row>
@@ -3578,49 +3645,49 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" t="n">
         <v>22</v>
       </c>
       <c r="G18" t="n">
-        <v>0.522</v>
+        <v>0.511</v>
       </c>
       <c r="H18" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I18" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J18" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L18" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M18" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N18" t="n">
-        <v>0.377</v>
+        <v>0.374</v>
       </c>
       <c r="O18" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P18" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R18" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S18" t="n">
         <v>30.8</v>
@@ -3629,13 +3696,13 @@
         <v>41.1</v>
       </c>
       <c r="U18" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="V18" t="n">
         <v>17</v>
       </c>
       <c r="W18" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="X18" t="n">
         <v>4.6</v>
@@ -3644,40 +3711,40 @@
         <v>4.7</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AA18" t="n">
         <v>19.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.8</v>
+        <v>98.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
         <v>14</v>
       </c>
       <c r="AG18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI18" t="n">
         <v>14</v>
       </c>
-      <c r="AH18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>13</v>
-      </c>
       <c r="AJ18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL18" t="n">
         <v>18</v>
@@ -3698,7 +3765,7 @@
         <v>9</v>
       </c>
       <c r="AR18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS18" t="n">
         <v>25</v>
@@ -3713,13 +3780,13 @@
         <v>28</v>
       </c>
       <c r="AW18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-29-2014-15</t>
+          <t>2015-01-29</t>
         </is>
       </c>
     </row>
@@ -3874,13 +3941,13 @@
         <v>6</v>
       </c>
       <c r="AP19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ19" t="n">
         <v>19</v>
       </c>
       <c r="AR19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS19" t="n">
         <v>30</v>
@@ -3901,10 +3968,10 @@
         <v>24</v>
       </c>
       <c r="AY19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA19" t="n">
         <v>7</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-29-2014-15</t>
+          <t>2015-01-29</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F20" t="n">
         <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>0.511</v>
+        <v>0.522</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J20" t="n">
-        <v>83.5</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L20" t="n">
         <v>6.4</v>
@@ -3972,76 +4039,76 @@
         <v>18.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.343</v>
+        <v>0.341</v>
       </c>
       <c r="O20" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P20" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.763</v>
+        <v>0.755</v>
       </c>
       <c r="R20" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="S20" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T20" t="n">
-        <v>43.6</v>
+        <v>44</v>
       </c>
       <c r="U20" t="n">
         <v>21.1</v>
       </c>
       <c r="V20" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W20" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X20" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="Y20" t="n">
         <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB20" t="n">
         <v>100</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
         <v>14</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
         <v>10</v>
       </c>
       <c r="AJ20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>25</v>
@@ -4050,37 +4117,37 @@
         <v>25</v>
       </c>
       <c r="AN20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO20" t="n">
         <v>17</v>
       </c>
       <c r="AP20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR20" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AS20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AT20" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AU20" t="n">
         <v>19</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY20" t="n">
         <v>29</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-29-2014-15</t>
+          <t>2015-01-29</t>
         </is>
       </c>
     </row>
@@ -4124,22 +4191,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" t="n">
-        <v>0.191</v>
+        <v>0.196</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J21" t="n">
         <v>81.90000000000001</v>
@@ -4148,31 +4215,31 @@
         <v>0.439</v>
       </c>
       <c r="L21" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M21" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="N21" t="n">
         <v>0.359</v>
       </c>
       <c r="O21" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="P21" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.768</v>
+        <v>0.769</v>
       </c>
       <c r="R21" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S21" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T21" t="n">
-        <v>39.9</v>
+        <v>40.1</v>
       </c>
       <c r="U21" t="n">
         <v>21.6</v>
@@ -4181,43 +4248,43 @@
         <v>14.7</v>
       </c>
       <c r="W21" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X21" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y21" t="n">
         <v>4.1</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA21" t="n">
         <v>18.7</v>
       </c>
       <c r="AB21" t="n">
-        <v>92.7</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-7.9</v>
+        <v>-7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
         <v>28</v>
       </c>
       <c r="AF21" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ21" t="n">
         <v>22</v>
@@ -4241,10 +4308,10 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS21" t="n">
         <v>28</v>
@@ -4253,7 +4320,7 @@
         <v>29</v>
       </c>
       <c r="AU21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV21" t="n">
         <v>19</v>
@@ -4265,13 +4332,13 @@
         <v>27</v>
       </c>
       <c r="AY21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ21" t="n">
         <v>25</v>
       </c>
       <c r="BA21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-29-2014-15</t>
+          <t>2015-01-29</t>
         </is>
       </c>
     </row>
@@ -4396,13 +4463,13 @@
         <v>16</v>
       </c>
       <c r="AH22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI22" t="n">
         <v>15</v>
       </c>
-      <c r="AI22" t="n">
-        <v>16</v>
-      </c>
       <c r="AJ22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK22" t="n">
         <v>22</v>
@@ -4417,7 +4484,7 @@
         <v>28</v>
       </c>
       <c r="AO22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP22" t="n">
         <v>14</v>
@@ -4441,7 +4508,7 @@
         <v>22</v>
       </c>
       <c r="AW22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX22" t="n">
         <v>4</v>
@@ -4456,7 +4523,7 @@
         <v>20</v>
       </c>
       <c r="BB22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC22" t="n">
         <v>15</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-29-2014-15</t>
+          <t>2015-01-29</t>
         </is>
       </c>
     </row>
@@ -4503,67 +4570,67 @@
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J23" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L23" t="n">
         <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.362</v>
+        <v>0.364</v>
       </c>
       <c r="O23" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="P23" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.729</v>
+        <v>0.731</v>
       </c>
       <c r="R23" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T23" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U23" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V23" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.09999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.9</v>
+        <v>-6</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4581,13 +4648,13 @@
         <v>28</v>
       </c>
       <c r="AI23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ23" t="n">
         <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AL23" t="n">
         <v>20</v>
@@ -4602,7 +4669,7 @@
         <v>29</v>
       </c>
       <c r="AP23" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AQ23" t="n">
         <v>27</v>
@@ -4620,22 +4687,22 @@
         <v>24</v>
       </c>
       <c r="AV23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX23" t="n">
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BA23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB23" t="n">
         <v>23</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-29-2014-15</t>
+          <t>2015-01-29</t>
         </is>
       </c>
     </row>
@@ -4760,7 +4827,7 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4790,13 +4857,13 @@
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS24" t="n">
         <v>27</v>
       </c>
       <c r="AT24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU24" t="n">
         <v>28</v>
@@ -4811,13 +4878,13 @@
         <v>3</v>
       </c>
       <c r="AY24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-29-2014-15</t>
+          <t>2015-01-29</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>12</v>
@@ -4942,7 +5009,7 @@
         <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI25" t="n">
         <v>3</v>
@@ -4960,7 +5027,7 @@
         <v>3</v>
       </c>
       <c r="AN25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO25" t="n">
         <v>15</v>
@@ -4975,7 +5042,7 @@
         <v>19</v>
       </c>
       <c r="AS25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT25" t="n">
         <v>18</v>
@@ -4990,13 +5057,13 @@
         <v>6</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
         <v>5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA25" t="n">
         <v>13</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-29-2014-15</t>
+          <t>2015-01-29</t>
         </is>
       </c>
     </row>
@@ -5148,13 +5215,13 @@
         <v>27</v>
       </c>
       <c r="AP26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS26" t="n">
         <v>2</v>
@@ -5163,7 +5230,7 @@
         <v>4</v>
       </c>
       <c r="AU26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV26" t="n">
         <v>9</v>
@@ -5184,7 +5251,7 @@
         <v>25</v>
       </c>
       <c r="BB26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC26" t="n">
         <v>4</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-29-2014-15</t>
+          <t>2015-01-29</t>
         </is>
       </c>
     </row>
@@ -5297,25 +5364,25 @@
         <v>28</v>
       </c>
       <c r="AE27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG27" t="n">
         <v>21</v>
       </c>
       <c r="AH27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL27" t="n">
         <v>29</v>
@@ -5333,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR27" t="n">
         <v>13</v>
@@ -5366,10 +5433,10 @@
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-29-2014-15</t>
+          <t>2015-01-29</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F28" t="n">
         <v>17</v>
       </c>
       <c r="G28" t="n">
-        <v>0.63</v>
+        <v>0.638</v>
       </c>
       <c r="H28" t="n">
         <v>49</v>
@@ -5416,25 +5483,25 @@
         <v>38</v>
       </c>
       <c r="J28" t="n">
-        <v>83.40000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L28" t="n">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="N28" t="n">
-        <v>0.365</v>
+        <v>0.368</v>
       </c>
       <c r="O28" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P28" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="Q28" t="n">
         <v>0.768</v>
@@ -5443,19 +5510,19 @@
         <v>10</v>
       </c>
       <c r="S28" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="T28" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U28" t="n">
         <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W28" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X28" t="n">
         <v>5.5</v>
@@ -5467,37 +5534,37 @@
         <v>19.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB28" t="n">
         <v>101.3</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI28" t="n">
         <v>12</v>
       </c>
       <c r="AJ28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5509,13 +5576,13 @@
         <v>7</v>
       </c>
       <c r="AO28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
         <v>25</v>
@@ -5524,16 +5591,16 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AW28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX28" t="n">
         <v>7</v>
@@ -5542,13 +5609,13 @@
         <v>15</v>
       </c>
       <c r="AZ28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-29-2014-15</t>
+          <t>2015-01-29</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5728,7 @@
         <v>10</v>
       </c>
       <c r="AE29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF29" t="n">
         <v>7</v>
@@ -5670,7 +5737,7 @@
         <v>7</v>
       </c>
       <c r="AH29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI29" t="n">
         <v>8</v>
@@ -5679,7 +5746,7 @@
         <v>12</v>
       </c>
       <c r="AK29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL29" t="n">
         <v>8</v>
@@ -5688,7 +5755,7 @@
         <v>8</v>
       </c>
       <c r="AN29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
@@ -5700,13 +5767,13 @@
         <v>4</v>
       </c>
       <c r="AR29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS29" t="n">
         <v>26</v>
       </c>
       <c r="AT29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU29" t="n">
         <v>17</v>
@@ -5718,7 +5785,7 @@
         <v>14</v>
       </c>
       <c r="AX29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-29-2014-15</t>
+          <t>2015-01-29</t>
         </is>
       </c>
     </row>
@@ -5843,13 +5910,13 @@
         <v>10</v>
       </c>
       <c r="AE30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF30" t="n">
         <v>23</v>
       </c>
       <c r="AG30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH30" t="n">
         <v>29</v>
@@ -5873,7 +5940,7 @@
         <v>21</v>
       </c>
       <c r="AO30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP30" t="n">
         <v>16</v>
@@ -5915,7 +5982,7 @@
         <v>24</v>
       </c>
       <c r="BC30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-29-2014-15</t>
+          <t>2015-01-29</t>
         </is>
       </c>
     </row>
@@ -6022,10 +6089,10 @@
         <v>2.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF31" t="n">
         <v>8</v>
@@ -6034,7 +6101,7 @@
         <v>8</v>
       </c>
       <c r="AH31" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AI31" t="n">
         <v>6</v>
@@ -6076,10 +6143,10 @@
         <v>5</v>
       </c>
       <c r="AV31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX31" t="n">
         <v>13</v>
@@ -6091,10 +6158,10 @@
         <v>17</v>
       </c>
       <c r="BA31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC31" t="n">
         <v>12</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-29-2014-15</t>
+          <t>2015-01-29</t>
         </is>
       </c>
     </row>
